--- a/medicine/Enfance/Daniel_José_Older/Daniel_José_Older.xlsx
+++ b/medicine/Enfance/Daniel_José_Older/Daniel_José_Older.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Daniel_Jos%C3%A9_Older</t>
+          <t>Daniel_José_Older</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Daniel José Older, né aux États-Unis, est un écrivain américain de science-fiction et de fantasy.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Daniel_Jos%C3%A9_Older</t>
+          <t>Daniel_José_Older</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Daniel_Jos%C3%A9_Older</t>
+          <t>Daniel_José_Older</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,27 +553,209 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Bone Street Rumba
-(en) Half-Resurrection Blues, 2015
+          <t>Série Bone Street Rumba</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) Half-Resurrection Blues, 2015
 (en) Midnight Taxi Tango, 2016
 (en) Battle Hill Bolero, 2017
-(en) Salsa Nocturna, 2012, recueil de nouvelles
-Série The Shadowshaper Cypher
-(en) Shadowshaper, 2015
+(en) Salsa Nocturna, 2012, recueil de nouvelles</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Daniel_José_Older</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daniel_Jos%C3%A9_Older</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série The Shadowshaper Cypher</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) Shadowshaper, 2015
 (en) Shadowhouse Fall, 2017
-(en) Shadowshaper Legacy, 2020
-Série Dactyl Hill Squad
-(en) Dactyl Hill Squad, 2018
+(en) Shadowshaper Legacy, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Daniel_José_Older</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daniel_Jos%C3%A9_Older</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Dactyl Hill Squad</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Dactyl Hill Squad, 2018
 (en) Freedom Fire, 2019
-(en) Thunder Run, 2020
-Série Outlaw Saints
-(en) Ballad &amp; Dagger, 2022
-(en) Last Canto of the Dead, 2023
-Univers Star Wars
-Roman indépendant
-Baroud d'honneur, Pocket, coll. « Star Wars » no 163, 2018 ((en) Last Shot, 2018), trad. Sandy Julien, 448 p.  (ISBN 978-2-266-28910-8)
-Série La Haute République
-Phase I : La Lumière des Jedi
+(en) Thunder Run, 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Daniel_José_Older</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daniel_Jos%C3%A9_Older</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Outlaw Saints</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) Ballad &amp; Dagger, 2022
+(en) Last Canto of the Dead, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Daniel_José_Older</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daniel_Jos%C3%A9_Older</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Univers Star Wars</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Roman indépendant</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Baroud d'honneur, Pocket, coll. « Star Wars » no 163, 2018 ((en) Last Shot, 2018), trad. Sandy Julien, 448 p.  (ISBN 978-2-266-28910-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Daniel_José_Older</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daniel_Jos%C3%A9_Older</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Univers Star Wars</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Série La Haute République</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Phase I : La Lumière des Jedi
 Romans
 La Tour des Trompe-la-mort, Hachette Jeunesse, coll. « Bibliothèque verte », 2021 ((en) Race to Crashpoint Tower, 2021), trad. Julien Bétan, 192 p.  (ISBN 978-2-01-628928-0)
 Horizon funèbre, Pocket, coll. « Star Wars » no 189, 2022 ((en) Midnight Horizon, 2022), trad. Julien Bétan, 480 p.  (ISBN 978-2-266-32499-1)
@@ -572,9 +768,43 @@
 (en) The High Republic Adventures 1, 2023
 Phase III : Trials of the Jedi
 Romans
-(en) Escape from Valo, 2024Coécrit avec Alyssa Wong (en).
-Romans indépendants
-(en) The Book of Lost Saints, 2019</t>
+(en) Escape from Valo, 2024Coécrit avec Alyssa Wong (en).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Daniel_José_Older</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daniel_Jos%C3%A9_Older</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(en) The Book of Lost Saints, 2019</t>
         </is>
       </c>
     </row>
